--- a/medicine/Pharmacie/Oxymétholone/Oxymétholone.xlsx
+++ b/medicine/Pharmacie/Oxymétholone/Oxymétholone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxym%C3%A9tholone</t>
+          <t>Oxymétholone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'oxymétholone (Anadrol), est un puissant stéroïde anabolisant et androgène.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxym%C3%A9tholone</t>
+          <t>Oxymétholone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de l'oxymétholone sont l’œdème, la prise de poids rapide, le priapisme, les modifications de couleur de peau, les dysuries, les nausées, les vomissements, les douleurs abdominales, la perte d'appétit, l'ictère, la gynécomastie, l'excitation, l'insomnie et la diarrhée[2],[3]. Chez les femmes, les effets secondaires comprennent également l'acné, les aménorrhées, la modification de la voix, l'augmentation de la pilosité, la calvitie de type masculin, l'augmentation du clitoris et des changements dans le désir sexuel[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de l'oxymétholone sont l’œdème, la prise de poids rapide, le priapisme, les modifications de couleur de peau, les dysuries, les nausées, les vomissements, les douleurs abdominales, la perte d'appétit, l'ictère, la gynécomastie, l'excitation, l'insomnie et la diarrhée,. Chez les femmes, les effets secondaires comprennent également l'acné, les aménorrhées, la modification de la voix, l'augmentation de la pilosité, la calvitie de type masculin, l'augmentation du clitoris et des changements dans le désir sexuel,.
 </t>
         </is>
       </c>
